--- a/uploads/Mineral Terminal Operations Compliances Exploitation Phase.xlsx
+++ b/uploads/Mineral Terminal Operations Compliances Exploitation Phase.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="12240" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15195" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -535,9 +535,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
   <si>
+    <t>Conditions precedents to be satisfied</t>
+  </si>
+  <si>
+    <t>Required actions or operations</t>
+  </si>
+  <si>
+    <t>Date for compliance (timeframe, deadline)</t>
+  </si>
+  <si>
+    <t>Party action accountable for compliance</t>
+  </si>
+  <si>
+    <t>Person in charge</t>
+  </si>
+  <si>
     <t>Due date for action</t>
   </si>
   <si>
+    <t>State authority accountable for compliance</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -559,25 +577,82 @@
     <t>State</t>
   </si>
   <si>
+    <t>During Exploitation Phase (Stage 1)</t>
+  </si>
+  <si>
+    <t>Mineral Terminal Project Company</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>Conditions precedents to be satisfied</t>
-  </si>
-  <si>
-    <t>Required actions or operations</t>
-  </si>
-  <si>
-    <t>Date for compliance (timeframe, deadline)</t>
-  </si>
-  <si>
-    <t>Party action accountable for compliance</t>
-  </si>
-  <si>
-    <t>Person in charge</t>
-  </si>
-  <si>
-    <t>State authority accountable for compliance</t>
+    <t>Mineral Terminal Concession</t>
+  </si>
+  <si>
+    <t>Execution of the Mineral Terminal Operations in compliance with the provisions of the Convention</t>
+  </si>
+  <si>
+    <t>The State may terminate all or any part of the Project Agreements and revoke all permits, authorisations and approvals of Cam Iron and the Project Companies, and shall draw upon any Bank Guarantee, surety or other security provided under any Project Agreement, or otherwise collect compensation from Cam Iron or the applicable Project Company to indemnify it for any actual or reasonably expected Losses resulting from such Permit Withdrawal Breach / Terminate the Exploitation Permit (article 50.5.a)</t>
+  </si>
+  <si>
+    <t>Ensure that the Mineral Terminal Agreement is drafted and executed (article 13.1)</t>
+  </si>
+  <si>
+    <t>During Construction Phase</t>
+  </si>
+  <si>
+    <t>Executed Mineral Terminal Agreement</t>
+  </si>
+  <si>
+    <t>Ensure that the Mineral Terminal initially handles the thirty five million (35,000,000) Tonnes of Ore in a Calendar Year and also handles the Design Capacity as specified in the Mineral Terminal Agreement</t>
+  </si>
+  <si>
+    <t>Mineral Terminal Agreement</t>
+  </si>
+  <si>
+    <t>Meet the capacity expectations of the Mineral Terminal</t>
+  </si>
+  <si>
+    <t>Ensure that the tariffs payable with respect to the Mineral Terminal are calculated substantially in accordance with the draft Tariff Frameworks for the Railway and Mineral Terminal which are attached to this Convention as Annex III</t>
+  </si>
+  <si>
+    <t>Annex III of the Convention</t>
+  </si>
+  <si>
+    <t>Respect of the method of calculation of Tariff payable with respct to the Mineral Terminal</t>
+  </si>
+  <si>
+    <t>Operate the Mineral Terminal in compliance with Operating Standards</t>
+  </si>
+  <si>
+    <t>Operating Standards/ Convention</t>
+  </si>
+  <si>
+    <t>Conduct all the works necessary and all the repairs of any damages that could occur in compliance with the provisions of the Mineral Terminal Agreement</t>
+  </si>
+  <si>
+    <t>Within three (3) months of the end of every two (2) years commencing upon Project Commissioning</t>
+  </si>
+  <si>
+    <t>Independant Expert Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upon the expiration of the initial twenty-five (25) year term of the Mineral Terminal Company’s right to operate the Mineral Terminal </t>
+  </si>
+  <si>
+    <t>Ministry of Mines</t>
+  </si>
+  <si>
+    <t>Renew the Mineral Terminal Agreement</t>
+  </si>
+  <si>
+    <t>Mineral Terminal Project Company / State</t>
+  </si>
+  <si>
+    <t>Terminate the Mineral Terminal Agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the end of the initial twenty-five (25) year term of the right of the Mineral Terminal Project Company to operate the Mineral Terminal </t>
   </si>
   <si>
     <r>
@@ -585,7 +660,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -593,48 +667,6 @@
       </rPr>
       <t>(article 13.1.j)</t>
     </r>
-  </si>
-  <si>
-    <t>During Exploitation Phase (Stage 1)</t>
-  </si>
-  <si>
-    <t>Mineral Terminal Project Company</t>
-  </si>
-  <si>
-    <t>Mineral Terminal Concession</t>
-  </si>
-  <si>
-    <t>Execution of the Mineral Terminal Operations in compliance with the provisions of the Convention</t>
-  </si>
-  <si>
-    <t>The State may terminate all or any part of the Project Agreements and revoke all permits, authorisations and approvals of Cam Iron and the Project Companies, and shall draw upon any Bank Guarantee, surety or other security provided under any Project Agreement, or otherwise collect compensation from Cam Iron or the applicable Project Company to indemnify it for any actual or reasonably expected Losses resulting from such Permit Withdrawal Breach / Terminate the Exploitation Permit (article 50.5.a)</t>
-  </si>
-  <si>
-    <t>Ensure that the Mineral Terminal Agreement is drafted and executed (article 13.1)</t>
-  </si>
-  <si>
-    <t>During Construction Phase</t>
-  </si>
-  <si>
-    <t>Executed Mineral Terminal Agreement</t>
-  </si>
-  <si>
-    <t>Ensure that the Mineral Terminal initially handles the thirty five million (35,000,000) Tonnes of Ore in a Calendar Year and also handles the Design Capacity as specified in the Mineral Terminal Agreement</t>
-  </si>
-  <si>
-    <t>Mineral Terminal Agreement</t>
-  </si>
-  <si>
-    <t>Meet the capacity expectations of the Mineral Terminal</t>
-  </si>
-  <si>
-    <t>Ensure that the tariffs payable with respect to the Mineral Terminal are calculated substantially in accordance with the draft Tariff Frameworks for the Railway and Mineral Terminal which are attached to this Convention as Annex III</t>
-  </si>
-  <si>
-    <t>Annex III of the Convention</t>
-  </si>
-  <si>
-    <t>Respect of the method of calculation of Tariff payable with respct to the Mineral Terminal</t>
   </si>
   <si>
     <r>
@@ -652,15 +684,11 @@
     </r>
   </si>
   <si>
-    <t>Operate the Mineral Terminal in compliance with Operating Standards</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Maintain and keep the Mineral Terminal Facilities in sound working order and in accordance with this Convention and the Operating Standards </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -670,18 +698,11 @@
     </r>
   </si>
   <si>
-    <t>Operating Standards/ Convention</t>
-  </si>
-  <si>
-    <t>Conduct all the works necessary and all the repairs of any damages that could occur in compliance with the provisions of the Mineral Terminal Agreement</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Provide to the State an independent report prepared by an independent expert approved by the State </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -691,18 +712,11 @@
     </r>
   </si>
   <si>
-    <t>Within three (3) months of the end of every two (2) years commencing upon Project Commissioning</t>
-  </si>
-  <si>
-    <t>Independant Expert Report</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Carry out the Mineral Terminal Operations within the surface, subsurface and waterside areas contemplated by the Mineral Terminal Agreement, the site plan of which will be attached to the Mineral Terminal Agreement </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -717,7 +731,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -727,21 +740,11 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Upon the expiration of the initial twenty-five (25) year term of the Mineral Terminal Company’s right to operate the Mineral Terminal </t>
-  </si>
-  <si>
-    <t>Ministry of Mines</t>
-  </si>
-  <si>
-    <t>Renew the Mineral Terminal Agreement</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Possibility for The Mineral Terminal Project Company and the State to enter into the Mineral Terminal Operations Agreement </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -751,18 +754,11 @@
     </r>
   </si>
   <si>
-    <t>Mineral Terminal Project Company / State</t>
-  </si>
-  <si>
-    <t>Terminate the Mineral Terminal Agreement</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Possibility for the State to grant a Third Party the right to operate the Mineral Terminal Facilities </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -771,38 +767,21 @@
       <t>(article 13.5.c)</t>
     </r>
   </si>
-  <si>
-    <t xml:space="preserve">At the end of the initial twenty-five (25) year term of the right of the Mineral Terminal Project Company to operate the Mineral Terminal </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -823,28 +802,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -853,104 +826,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -959,74 +844,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1044,7 +898,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1330,456 +1184,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A4:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="7" width="27.5703125" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="23" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="4"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="26"/>
+    <row r="7" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="4"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4" t="s">
+      <c r="I9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="7"/>
+      <c r="M9" s="5"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="7"/>
+    <row r="10" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="5"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="107.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="11" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="J14" s="5"/>
+      <c r="K14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="11"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="5"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="52.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="16" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="11"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="5"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="406.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
+    <row r="17" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="406.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="406.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="406.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="406.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="406.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="406.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="406.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="19"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="A4:A5"/>
@@ -1787,17 +1625,16 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="K16:K17"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1808,7 +1645,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1820,7 +1657,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
